--- a/web/hwd1.xlsx
+++ b/web/hwd1.xlsx
@@ -15,9 +15,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>Hello World !</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+  <si>
+    <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 1"</t>
+  </si>
+  <si>
+    <t>Пакет оценок: "Оценка по экспертизе" от 2018-07-12</t>
+  </si>
+  <si>
+    <t>Результат:Предварительная оценка требований</t>
+  </si>
+  <si>
+    <t>Работа: Анализ требований на основании материалов установочной встречи</t>
+  </si>
+  <si>
+    <t>Аналитик Гончар Вера (ч.д.)</t>
+  </si>
+  <si>
+    <t>Результат:Экспертиза разработана</t>
+  </si>
+  <si>
+    <t>Работа: Разработка экспертизы в части требований к Спектуруму</t>
+  </si>
+  <si>
+    <t>Технолог-участник Перелыгин Тимур (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Согласование экспертизы с главным технологом по заявке</t>
+  </si>
+  <si>
+    <t>Результат:Экспертиза согласована</t>
+  </si>
+  <si>
+    <t>Работа: Согласование экспертизы и устранение замечаний</t>
+  </si>
+  <si>
+    <t>Архитектор Москалев Андрей (ч.д.)</t>
+  </si>
+  <si>
+    <t>Результат:БФТЗ разработано</t>
+  </si>
+  <si>
+    <t>Работа: Написание БФТЗ</t>
+  </si>
+  <si>
+    <t>Результат:БФТЗ согласовано</t>
+  </si>
+  <si>
+    <t>Работа: Согласование БФТЗ по Спектруму</t>
+  </si>
+  <si>
+    <t>Работа: Согласование БФТЗ по Siebel</t>
+  </si>
+  <si>
+    <t>Результат:Реализация и внутреннее тестирование  функционала</t>
+  </si>
+  <si>
+    <t>Работа: Разработка новой формы</t>
+  </si>
+  <si>
+    <t>Разработчик Рыкалова Светлана (ч.д.)</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию Цыганок Олег (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Документирование функционала</t>
+  </si>
+  <si>
+    <t>Работа: Настройки</t>
+  </si>
+  <si>
+    <t>Работа: Доработка интеграции Зибель-Спектрум (wsdl)</t>
+  </si>
+  <si>
+    <t>Разработчик Ольвовский Игорь (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Доработки взаимодействия с Бисквит</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового ИП</t>
+  </si>
+  <si>
+    <t>Работа: Доработка Аналитической выгрузки</t>
+  </si>
+  <si>
+    <t>Работа: Доработка метода сохранения операции (сохранение id зачисления, номера сводного счета списания)</t>
+  </si>
+  <si>
+    <t>Работа: Настройка нового пакета печати (РКО+справка СНИВ)</t>
+  </si>
+  <si>
+    <t>Разработчик Киреева Мария (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового метода Поиск/создание лицевого счета для зачисления</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового метода по ведению резерва остатка лицевых счетов</t>
+  </si>
+  <si>
+    <t>Работа: Доработка отчетов</t>
+  </si>
+  <si>
+    <t>Результат:Протестировано по методикам банка</t>
+  </si>
+  <si>
+    <t>Работа: Согласование методики тестирования от банка</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию Савельев Владимир (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Тестирование по методике банка</t>
+  </si>
+  <si>
+    <t>Результат:Версия подготовлена и протестирована</t>
+  </si>
+  <si>
+    <t>Работа: Сборка версии</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию Ларин Денис (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Тестирование функционала в составе версии</t>
+  </si>
+  <si>
+    <t>Технолог-участник</t>
+  </si>
+  <si>
+    <t>Аналитик</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>Архитектор</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -25,9 +166,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -53,9 +203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,21 +512,529 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="60" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="C59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="C65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="C68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>71.7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/web/hwd1.xlsx
+++ b/web/hwd1.xlsx
@@ -15,147 +15,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
-  <si>
-    <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 1"</t>
-  </si>
-  <si>
-    <t>Пакет оценок: "Оценка по экспертизе" от 2018-07-12</t>
-  </si>
-  <si>
-    <t>Результат:Предварительная оценка требований</t>
-  </si>
-  <si>
-    <t>Работа: Анализ требований на основании материалов установочной встречи</t>
-  </si>
-  <si>
-    <t>Аналитик Гончар Вера (ч.д.)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 2"</t>
+  </si>
+  <si>
+    <t>Пакет оценок: "Окончательная оценка" от 2018-10-02</t>
+  </si>
+  <si>
+    <t>Результат:Предварительная оценка</t>
+  </si>
+  <si>
+    <t>Работа: песок носить</t>
+  </si>
+  <si>
+    <t>Разработчик Ольвовский Игорь (ч.д.)</t>
+  </si>
+  <si>
+    <t>Разработчик Киреева Мария (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: На воду дуть</t>
+  </si>
+  <si>
+    <t>Технолог-участник Перелыгин Тимур (ч.д.)</t>
   </si>
   <si>
     <t>Результат:Экспертиза разработана</t>
   </si>
   <si>
-    <t>Работа: Разработка экспертизы в части требований к Спектуруму</t>
-  </si>
-  <si>
-    <t>Технолог-участник Перелыгин Тимур (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Согласование экспертизы с главным технологом по заявке</t>
+    <t xml:space="preserve">Работа: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ч.д.)</t>
   </si>
   <si>
     <t>Результат:Экспертиза согласована</t>
   </si>
   <si>
-    <t>Работа: Согласование экспертизы и устранение замечаний</t>
-  </si>
-  <si>
-    <t>Архитектор Москалев Андрей (ч.д.)</t>
-  </si>
-  <si>
     <t>Результат:БФТЗ разработано</t>
   </si>
   <si>
-    <t>Работа: Написание БФТЗ</t>
+    <t>Работа: Название работы 1</t>
   </si>
   <si>
     <t>Результат:БФТЗ согласовано</t>
   </si>
   <si>
-    <t>Работа: Согласование БФТЗ по Спектруму</t>
-  </si>
-  <si>
-    <t>Работа: Согласование БФТЗ по Siebel</t>
-  </si>
-  <si>
-    <t>Результат:Реализация и внутреннее тестирование  функционала</t>
-  </si>
-  <si>
-    <t>Работа: Разработка новой формы</t>
-  </si>
-  <si>
-    <t>Разработчик Рыкалова Светлана (ч.д.)</t>
-  </si>
-  <si>
-    <t>Инженер по тестированию Цыганок Олег (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Документирование функционала</t>
-  </si>
-  <si>
-    <t>Работа: Настройки</t>
-  </si>
-  <si>
-    <t>Работа: Доработка интеграции Зибель-Спектрум (wsdl)</t>
-  </si>
-  <si>
-    <t>Разработчик Ольвовский Игорь (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Доработки взаимодействия с Бисквит</t>
-  </si>
-  <si>
-    <t>Работа: Разработка нового ИП</t>
-  </si>
-  <si>
-    <t>Работа: Доработка Аналитической выгрузки</t>
-  </si>
-  <si>
-    <t>Работа: Доработка метода сохранения операции (сохранение id зачисления, номера сводного счета списания)</t>
-  </si>
-  <si>
-    <t>Работа: Настройка нового пакета печати (РКО+справка СНИВ)</t>
-  </si>
-  <si>
-    <t>Разработчик Киреева Мария (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Разработка нового метода Поиск/создание лицевого счета для зачисления</t>
-  </si>
-  <si>
-    <t>Работа: Разработка нового метода по ведению резерва остатка лицевых счетов</t>
-  </si>
-  <si>
-    <t>Работа: Доработка отчетов</t>
+    <t xml:space="preserve">Результат:4.2.6.1  Интеграция с Зибель </t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.2. Форма для выполнения  операции</t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.3. Доработать интеграцию с Бисквит (механизм SCcreateDocs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат:4.2.6.4. выгрузка в Агрегатор </t>
+  </si>
+  <si>
+    <t>Результат:​4.2.6.5. Новые коды операции для учета операций перевода остатков с закрытых карт Way4,</t>
+  </si>
+  <si>
+    <t>Результат:​4.2.6.6. Алгоритм аналитической выгрузки.</t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.7. Шаблон назначения платежа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат:4.2.6.8. Реестр операций с НИВ </t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.9. Отчет по операциям с платежными картами</t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.10 Системная функция для вызова новой экранной формы.</t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.11 Выплата 3-му лицу/по доверенности</t>
+  </si>
+  <si>
+    <t>Результат:4.2.6.12 Выгрузкуа для z-front (BR-8506).</t>
   </si>
   <si>
     <t>Результат:Протестировано по методикам банка</t>
   </si>
   <si>
-    <t>Работа: Согласование методики тестирования от банка</t>
-  </si>
-  <si>
-    <t>Инженер по тестированию Савельев Владимир (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Тестирование по методике банка</t>
-  </si>
-  <si>
     <t>Результат:Версия подготовлена и протестирована</t>
   </si>
   <si>
-    <t>Работа: Сборка версии</t>
-  </si>
-  <si>
-    <t>Инженер по тестированию Ларин Денис (ч.д.)</t>
-  </si>
-  <si>
-    <t>Работа: Тестирование функционала в составе версии</t>
-  </si>
-  <si>
     <t>Технолог-участник</t>
   </si>
   <si>
-    <t>Аналитик</t>
-  </si>
-  <si>
     <t>Разработчик</t>
-  </si>
-  <si>
-    <t>Архитектор</t>
-  </si>
-  <si>
-    <t>Инженер по тестированию</t>
   </si>
   <si>
     <t>Итого</t>
@@ -512,10 +464,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,12 +500,15 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,51 +525,44 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
+      <c r="A17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -628,10 +576,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -641,363 +589,261 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="30" spans="1:4">
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="2" t="s">
-        <v>21</v>
+      <c r="A32" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D43"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="C44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
+      <c r="A44" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D46"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="C47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
+      <c r="A47" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49">
-        <v>1.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D49"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="C50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="A50" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="C52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52">
-        <v>0.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D52"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="C53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>0.5</v>
+      <c r="A53" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="C55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="2" t="s">
-        <v>32</v>
+      <c r="A56" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="C57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="C59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59">
-        <v>0.5</v>
+      <c r="A59" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="C63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="C65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="C68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="C70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="C77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="C78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="C79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="C80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81">
-        <v>71.7</v>
+      <c r="D74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1005,35 +851,43 @@
   <mergeCells>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/hwd1.xlsx
+++ b/web/hwd1.xlsx
@@ -15,102 +15,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 2"</t>
-  </si>
-  <si>
-    <t>Пакет оценок: "Окончательная оценка" от 2018-10-02</t>
-  </si>
-  <si>
-    <t>Результат:Предварительная оценка</t>
-  </si>
-  <si>
-    <t>Работа: песок носить</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 1"</t>
+  </si>
+  <si>
+    <t>Пакет оценок: "Оценка по экспертизе" от 2018-07-12</t>
+  </si>
+  <si>
+    <t>Результат:Предварительная оценка требований</t>
+  </si>
+  <si>
+    <t>Работа: Анализ требований на основании материалов установочной встречи</t>
+  </si>
+  <si>
+    <t>Аналитик Гончар Вера (ч.д.)</t>
+  </si>
+  <si>
+    <t>Результат:Экспертиза разработана</t>
+  </si>
+  <si>
+    <t>Работа: Разработка экспертизы в части требований к Спектуруму</t>
+  </si>
+  <si>
+    <t>Технолог-участник Перелыгин Тимур (ч.д.)</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию Цыганок Олег (ч.д.)</t>
+  </si>
+  <si>
+    <t>Инженер по тестированию Ларин Денис (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Согласование экспертизы с главным технологом по заявке</t>
+  </si>
+  <si>
+    <t>Результат:Экспертиза согласована</t>
+  </si>
+  <si>
+    <t>Работа: Согласование экспертизы и устранение замечаний</t>
+  </si>
+  <si>
+    <t>Архитектор Москалев Андрей (ч.д.)</t>
+  </si>
+  <si>
+    <t>Результат:БФТЗ разработано</t>
+  </si>
+  <si>
+    <t>Работа: Написание БФТЗ</t>
+  </si>
+  <si>
+    <t>Результат:БФТЗ согласовано</t>
+  </si>
+  <si>
+    <t>Работа: Согласование БФТЗ по Спектруму</t>
+  </si>
+  <si>
+    <t>Работа: Согласование БФТЗ по Siebel</t>
+  </si>
+  <si>
+    <t>Результат:Реализация и внутреннее тестирование  функционала</t>
+  </si>
+  <si>
+    <t>Работа: Разработка новой формы</t>
+  </si>
+  <si>
+    <t>Разработчик Рыкалова Светлана (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Документирование функционала</t>
+  </si>
+  <si>
+    <t>Работа: Настройки</t>
+  </si>
+  <si>
+    <t>Работа: Доработка интеграции Зибель-Спектрум (wsdl)</t>
   </si>
   <si>
     <t>Разработчик Ольвовский Игорь (ч.д.)</t>
   </si>
   <si>
+    <t>Работа: Доработки взаимодействия с Бисквит</t>
+  </si>
+  <si>
     <t>Разработчик Киреева Мария (ч.д.)</t>
   </si>
   <si>
-    <t>Работа: На воду дуть</t>
-  </si>
-  <si>
-    <t>Технолог-участник Перелыгин Тимур (ч.д.)</t>
-  </si>
-  <si>
-    <t>Результат:Экспертиза разработана</t>
+    <t>Инженер по тестированию Савельев Владимир (ч.д.)</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового ИП</t>
+  </si>
+  <si>
+    <t>Работа: Доработка Аналитической выгрузки</t>
+  </si>
+  <si>
+    <t>Работа: Доработка метода сохранения операции (сохранение id зачисления, номера сводного счета списания)</t>
+  </si>
+  <si>
+    <t>Работа: Настройка нового пакета печати (РКО+справка СНИВ)</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового метода Поиск/создание лицевого счета для зачисления</t>
+  </si>
+  <si>
+    <t>Работа: Разработка нового метода по ведению резерва остатка лицевых счетов</t>
+  </si>
+  <si>
+    <t>Работа: Доработка отчетов</t>
+  </si>
+  <si>
+    <t>Результат:Протестировано по методикам банка</t>
+  </si>
+  <si>
+    <t>Работа: Согласование методики тестирования от банка</t>
+  </si>
+  <si>
+    <t>Работа: Тестирование по методике банка</t>
+  </si>
+  <si>
+    <t>Результат:Версия подготовлена и протестирована</t>
+  </si>
+  <si>
+    <t>Работа: Сборка версии</t>
+  </si>
+  <si>
+    <t>Работа: Тестирование функционала в составе версии</t>
+  </si>
+  <si>
+    <t>Результат:новый узел вложенный</t>
   </si>
   <si>
     <t xml:space="preserve">Работа: </t>
   </si>
   <si>
     <t xml:space="preserve"> (ч.д.)</t>
-  </si>
-  <si>
-    <t>Результат:Экспертиза согласована</t>
-  </si>
-  <si>
-    <t>Результат:БФТЗ разработано</t>
-  </si>
-  <si>
-    <t>Работа: Название работы 1</t>
-  </si>
-  <si>
-    <t>Результат:БФТЗ согласовано</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат:4.2.6.1  Интеграция с Зибель </t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.2. Форма для выполнения  операции</t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.3. Доработать интеграцию с Бисквит (механизм SCcreateDocs).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат:4.2.6.4. выгрузка в Агрегатор </t>
-  </si>
-  <si>
-    <t>Результат:​4.2.6.5. Новые коды операции для учета операций перевода остатков с закрытых карт Way4,</t>
-  </si>
-  <si>
-    <t>Результат:​4.2.6.6. Алгоритм аналитической выгрузки.</t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.7. Шаблон назначения платежа.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат:4.2.6.8. Реестр операций с НИВ </t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.9. Отчет по операциям с платежными картами</t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.10 Системная функция для вызова новой экранной формы.</t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.11 Выплата 3-му лицу/по доверенности</t>
-  </si>
-  <si>
-    <t>Результат:4.2.6.12 Выгрузкуа для z-front (BR-8506).</t>
-  </si>
-  <si>
-    <t>Результат:Протестировано по методикам банка</t>
-  </si>
-  <si>
-    <t>Результат:Версия подготовлена и протестирована</t>
-  </si>
-  <si>
-    <t>Технолог-участник</t>
-  </si>
-  <si>
-    <t>Разработчик</t>
-  </si>
-  <si>
-    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -464,10 +503,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,15 +539,12 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -529,57 +565,70 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19"/>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="2" t="s">
-        <v>13</v>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -589,305 +638,411 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25"/>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28"/>
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="2" t="s">
-        <v>9</v>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31"/>
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="2" t="s">
-        <v>9</v>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34"/>
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="C37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37"/>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="2" t="s">
-        <v>9</v>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40"/>
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="2" t="s">
-        <v>9</v>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43"/>
+      <c r="B43" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="2" t="s">
-        <v>9</v>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46"/>
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>22</v>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49"/>
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="C52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52"/>
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>24</v>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="C55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55"/>
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>25</v>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="C58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58"/>
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>26</v>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="2" t="s">
+      <c r="D65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="C67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
       <c r="D74">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75">
-        <v>185</v>
-      </c>
+      <c r="B75" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A50:C50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
